--- a/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.9910410603031663</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>9.859631951830057</v>
+        <v>9.859631951830055</v>
       </c>
     </row>
     <row r="5">
@@ -660,23 +660,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7495999436919809</v>
+        <v>0.520102636034168</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.624813878077223</v>
+        <v>-2.866027040955384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.028155956364988</v>
+        <v>-0.8757230674114979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.977324000635642</v>
+        <v>1.01201475821616</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.3462746150717403</v>
+        <v>-0.4233634143784045</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5071262926227526</v>
+        <v>-0.5275482316682891</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.48131541248568</v>
+        <v>5.029232363996982</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.122927616798333</v>
+        <v>5.868905524266204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.647737781696016</v>
+        <v>4.249356620365401</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.886912311775804</v>
+        <v>5.02619845509138</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1.828804982819672</v>
+        <v>1.567286263629337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7.523660120169773</v>
+        <v>7.967432632108392</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -729,7 +729,7 @@
         <v>-0.5545744315513711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5566055927616264</v>
+        <v>0.5566055927616262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.561791947893173</v>
@@ -741,7 +741,7 @@
         <v>-0.2916861407259578</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3656813530567565</v>
+        <v>0.3656813530567564</v>
       </c>
     </row>
     <row r="8">
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1902549789610278</v>
+        <v>0.2912968757255958</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.694136394117943</v>
+        <v>-2.654846685201077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.158643657423951</v>
+        <v>-2.065219681159038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.32971351290639</v>
+        <v>-1.395037311420039</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08670463017886615</v>
+        <v>-0.05215948480762876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8366330209551672</v>
+        <v>-0.7924219367798925</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7744190608173366</v>
+        <v>-0.7541600328286796</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5429750367305404</v>
+        <v>-0.5351477657717254</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.69497710878982</v>
+        <v>3.795918823332986</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.034839060834327</v>
+        <v>1.007602986650289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.046034303094181</v>
+        <v>0.9813907668569788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.941172329307157</v>
+        <v>1.874635303701723</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.765280493274857</v>
+        <v>6.439270803783194</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.443674551163093</v>
+        <v>1.442847405898637</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.118945359137165</v>
+        <v>1.278672964512025</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.739959137302966</v>
+        <v>2.512374319961658</v>
       </c>
     </row>
     <row r="10">
@@ -852,26 +852,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3287721252092078</v>
+        <v>-0.3241175781117853</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7798288296580259</v>
+        <v>-0.7144960150655726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.636794116936059</v>
+        <v>-2.618913607224212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.745329441239603</v>
+        <v>-2.962334526538997</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.4711367141071466</v>
+        <v>-0.5174885134390121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7128000986797154</v>
+        <v>-0.7691954342438855</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4465618851788886</v>
+        <v>-0.4336954086528728</v>
       </c>
     </row>
     <row r="12">
@@ -882,26 +882,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.987208627699763</v>
+        <v>1.739421209508848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.22612896814288</v>
+        <v>3.094472306772797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.734346812207609</v>
+        <v>1.746055764137529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.160556285040124</v>
+        <v>2.982676927111661</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>7.439948298265568</v>
+        <v>7.274885641409794</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.604606247852575</v>
+        <v>1.651991655969383</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.030978832951883</v>
+        <v>0.9168603945855018</v>
       </c>
     </row>
     <row r="13">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6587883830006067</v>
+        <v>-0.9416056281135522</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.19672756641198</v>
+        <v>-3.356692949563917</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.223184026158241</v>
+        <v>-2.102000535118408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.668404424662235</v>
+        <v>-1.94571765036715</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3469866098717688</v>
+        <v>-0.3523600146750505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6844204016066654</v>
+        <v>-0.7093020057841629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6406126311670527</v>
+        <v>-0.6326618071822656</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7627419231130947</v>
+        <v>-0.805669452119495</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.79478808222352</v>
+        <v>3.734970903093187</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.476488322561068</v>
+        <v>2.408792777994763</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.644391241649095</v>
+        <v>2.740959347186047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.460339284909922</v>
+        <v>2.15941985827493</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.519284432741206</v>
+        <v>3.987935072295586</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.466440728848285</v>
+        <v>1.329798123759114</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.983717004379321</v>
+        <v>2.301032245535068</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12.68527366853548</v>
+        <v>9.040278793098787</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.8067432872038823</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>2.089659196523935</v>
+        <v>2.089659196523934</v>
       </c>
     </row>
     <row r="17">
@@ -1048,26 +1048,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1070369486214828</v>
+        <v>0.0634528676687543</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.763783472694284</v>
+        <v>-5.27802220157584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.276441061255329</v>
+        <v>-1.928680824577029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3154219360442576</v>
+        <v>0.04849270471490711</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.6708355449507383</v>
+        <v>-0.6721884704813945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6916359282386593</v>
+        <v>-0.8037118004781884</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5236605472972888</v>
+        <v>-0.3442861995919062</v>
       </c>
     </row>
     <row r="18">
@@ -1078,26 +1078,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.440932911870107</v>
+        <v>4.988549468051176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.219242181620454</v>
+        <v>4.747576515758209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.807528778536216</v>
+        <v>4.475078868652421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.967263317950497</v>
+        <v>3.014946187261422</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1.78532547945321</v>
-      </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>1.719906547962596</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1121,7 +1117,7 @@
         <v>-0.3344403971655859</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2371699715050753</v>
+        <v>0.2371699715050746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.771786360702214</v>
@@ -1133,7 +1129,7 @@
         <v>-0.2476236376666829</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.05405203567511914</v>
+        <v>0.05405203567511899</v>
       </c>
     </row>
     <row r="20">
@@ -1144,26 +1140,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.055914922220736</v>
+        <v>-1.100334185133169</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.003847425879318</v>
+        <v>-1.846056856604043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.103901714860727</v>
+        <v>-2.378753640702672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.622481777898324</v>
+        <v>-2.851329977641341</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6499078177546905</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="n">
+        <v>-0.7025125157248595</v>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>-1</v>
       </c>
+      <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.4735651398420316</v>
+        <v>-0.4643925061527777</v>
       </c>
     </row>
     <row r="21">
@@ -1174,26 +1170,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.69485175931597</v>
+        <v>3.759059867759792</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.322694830454323</v>
+        <v>2.281139211084872</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.312170739342222</v>
+        <v>1.211511474641431</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.1122068429891</v>
+        <v>3.087512947854696</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.336987749390305</v>
-      </c>
-      <c r="H21" s="6" t="inlineStr"/>
-      <c r="I21" s="6" t="n">
-        <v>4.000042694422699</v>
-      </c>
+        <v>7.445347270564396</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>7.054044466583203</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.06650535275478</v>
+        <v>1.076652026402614</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1225,7 @@
         <v>-0.1458397953571591</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4623390187471355</v>
+        <v>0.4623390187471356</v>
       </c>
     </row>
     <row r="23">
@@ -1240,28 +1236,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.435739133602429</v>
+        <v>-2.386369607459899</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.007776142757308</v>
+        <v>-1.118044346646487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.469122212428195</v>
+        <v>-2.582054953962227</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2885618006689687</v>
+        <v>-0.6566030735162959</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.862339812410876</v>
+        <v>-0.8562890695142664</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5287929039943435</v>
+        <v>-0.5396824499678665</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5870731425587471</v>
+        <v>-0.5945677341892929</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.07375994081520326</v>
+        <v>-0.141024034690084</v>
       </c>
     </row>
     <row r="24">
@@ -1272,28 +1268,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2958309467427607</v>
+        <v>0.280661308040685</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.882787541028355</v>
+        <v>1.865940306050997</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.556278428323605</v>
+        <v>1.295416190335883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.671205820521164</v>
+        <v>4.592000621953312</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3999731430837064</v>
+        <v>0.4666022896305834</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.097636524789837</v>
+        <v>2.259737595378911</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6851414580906067</v>
+        <v>0.6719714919822981</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.357269152658861</v>
+        <v>1.291572280711988</v>
       </c>
     </row>
     <row r="25">
@@ -1317,7 +1313,7 @@
         <v>0.9986855172692932</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1264959481043409</v>
+        <v>0.1264959481043411</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.3633627817532457</v>
@@ -1329,7 +1325,7 @@
         <v>0.7730117653025569</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1581124781271431</v>
+        <v>0.1581124781271434</v>
       </c>
     </row>
     <row r="26">
@@ -1340,28 +1336,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.275889999426306</v>
+        <v>-3.296041594097661</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.68910619491542</v>
+        <v>-2.61415712430614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.3683760984170796</v>
+        <v>-0.2589251796351798</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.015629489609145</v>
+        <v>-1.002288073715537</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6524250415651638</v>
+        <v>-0.6714120839232696</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.537224568624593</v>
+        <v>-0.5412937323364235</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2266013163451869</v>
+        <v>-0.1855233308495474</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6815142359535099</v>
+        <v>-0.6683161987825269</v>
       </c>
     </row>
     <row r="27">
@@ -1372,28 +1368,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3528933789819474</v>
+        <v>0.4927747438045645</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.328375109976953</v>
+        <v>1.366494741582453</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.323555865822709</v>
+        <v>2.466979930223331</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.875863480863738</v>
+        <v>0.9532927458317216</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1952667661225717</v>
+        <v>0.1868962792435303</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5109757660898535</v>
+        <v>0.552245337848086</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.958118564587</v>
+        <v>2.971693293840019</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.121801757930593</v>
+        <v>3.316777039739385</v>
       </c>
     </row>
     <row r="28">
@@ -1417,7 +1413,7 @@
         <v>0.2192169732448543</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9998589725017899</v>
+        <v>0.9998589725017906</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.235798251101906</v>
@@ -1429,7 +1425,7 @@
         <v>0.1076308051470025</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4298087320358401</v>
+        <v>0.4298087320358406</v>
       </c>
     </row>
     <row r="29">
@@ -1440,28 +1436,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2179975097634058</v>
+        <v>-0.2041482664471615</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7913063920182654</v>
+        <v>-0.8960927537946676</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5310334745694519</v>
+        <v>-0.4816098699748104</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1992248862391044</v>
+        <v>0.267518955072048</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1040906960779764</v>
+        <v>-0.1025224870553173</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2564768624288139</v>
+        <v>-0.2691396063930201</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2252830549987114</v>
+        <v>-0.2044832624802568</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.07156971569418079</v>
+        <v>0.08990823901014222</v>
       </c>
     </row>
     <row r="30">
@@ -1472,28 +1468,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.163924018632682</v>
+        <v>1.1397893417042</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8335951272650444</v>
+        <v>0.851500697914071</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9113784945393721</v>
+        <v>0.910237214561226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.697718507839557</v>
+        <v>1.782022849457091</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7871328993670569</v>
+        <v>0.753544346393312</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3351710371404421</v>
+        <v>0.3570808311674705</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5528238428944331</v>
+        <v>0.5355067487042472</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.9067259660573175</v>
+        <v>0.9210741551135696</v>
       </c>
     </row>
     <row r="31">
